--- a/Project/List-komponen-dan-harga.xlsx
+++ b/Project/List-komponen-dan-harga.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UGM\Mata Kuliah\Semester 6\1. Sistem Berdasar Mikroprosesor\Tugas 2021-Gasal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UGM\Mata Kuliah\Semester 6\1. Sistem Berdasar Mikroprosesor\Tugas 2021-Gasal\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8896606B-054B-4D61-9974-E59322934CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931B153C-5B38-4F01-8B82-4F7ED4802529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>LCD</t>
   </si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t>MEDIA</t>
+  </si>
+  <si>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Ultrasonic</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -404,10 +422,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -415,15 +433,21 @@
     <col min="3" max="3" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -434,46 +458,97 @@
         <f>B2+B7</f>
         <v>56900</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>14400</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>17000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <f>SUM(I2:I6)</f>
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <f>SUM(H7:I7)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -488,8 +563,16 @@
         <f>AVERAGE(B8:B9)</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="9">
+        <f>H7*B8</f>
+        <v>7650</v>
+      </c>
+      <c r="I8" s="9">
+        <f>I7*B9</f>
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -500,8 +583,16 @@
       <c r="C9" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="9">
+        <f>H8+I8</f>
+        <v>12730</v>
+      </c>
+      <c r="J9" s="9">
+        <f>J7*D8</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -512,13 +603,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -526,7 +617,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -534,7 +625,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -542,7 +633,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -553,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
